--- a/Ch_7_Sentence_Modes/Mode OR Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Mode OR Nuc PA Phonetic Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7724D-7E1B-4C49-9F84-F9327F49E78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC48E5C-8FE4-43FB-BC40-387A17C74C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -16424,40 +16424,40 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="24" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="23" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="23" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="25" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="23" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="23" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="23" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="23" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="25" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="25" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="23" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="23" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" style="23" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="23" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="25" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="25" customWidth="1"/>
-    <col min="38" max="39" width="11.42578125" style="23" customWidth="1"/>
-    <col min="40" max="16384" width="13.85546875" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="24" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="23" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="23" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="25" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="23" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="23" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="23" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="25" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="25" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="23" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="23" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="23" customWidth="1"/>
+    <col min="34" max="35" width="11.44140625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" style="25" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="25" customWidth="1"/>
+    <col min="38" max="39" width="11.44140625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="122" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="122" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
         <v>67</v>
       </c>
@@ -16510,7 +16510,7 @@
       </c>
       <c r="AM1" s="207"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>0.96763271291965003</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>0.89343047868632197</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>0.49149090119960898</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>0.82413402479152897</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>0.83291444025534001</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>34</v>
       </c>
@@ -17961,50 +17961,50 @@
       <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="33" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="32" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="32" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="34" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="32" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="32" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="35" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="35" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="35" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="32" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="32" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="32" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="35" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="35" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="35" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="32" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="32" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="32" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="35" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="35" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="35" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="32" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="32" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="32" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="35" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="35" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="35" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="32" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="32" customWidth="1"/>
-    <col min="51" max="52" width="8.7109375" style="32" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="35" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="35" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="35" customWidth="1"/>
-    <col min="56" max="57" width="11.42578125" style="32" customWidth="1"/>
-    <col min="58" max="16384" width="13.85546875" style="32"/>
+    <col min="1" max="1" width="12.33203125" style="33" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="32" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="32" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="34" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="32" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="32" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="32" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="35" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="35" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="35" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="32" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="32" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="32" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="35" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="35" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="35" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="32" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="32" customWidth="1"/>
+    <col min="33" max="34" width="8.6640625" style="32" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" style="35" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="35" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="35" customWidth="1"/>
+    <col min="38" max="39" width="7.6640625" style="32" customWidth="1"/>
+    <col min="40" max="41" width="11.44140625" style="32" customWidth="1"/>
+    <col min="42" max="43" width="8.6640625" style="32" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="35" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" style="35" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="35" customWidth="1"/>
+    <col min="47" max="48" width="7.6640625" style="32" customWidth="1"/>
+    <col min="49" max="50" width="11.44140625" style="32" customWidth="1"/>
+    <col min="51" max="52" width="8.6640625" style="32" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" style="35" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="35" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" style="35" customWidth="1"/>
+    <col min="56" max="57" width="11.44140625" style="32" customWidth="1"/>
+    <col min="58" max="16384" width="13.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="31" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="31" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
         <v>67</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="BE1" s="207"/>
     </row>
-    <row r="2" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>37</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>24</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>0.96763271291965003</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>25</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>0.89343047868632197</v>
       </c>
     </row>
-    <row r="5" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>0.49149090119960898</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="101" t="s">
         <v>5</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>3</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>0.82413402479152897</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
         <v>2</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0.83291444025534001</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="101" t="s">
         <v>41</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="110" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" s="110" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
@@ -20175,38 +20175,38 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="U1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="120" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="24" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="23" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="23" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="25" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="23" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="23" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="23" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="23" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="25" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="25" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="23" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="23" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" style="23" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="23" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="25" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="25" customWidth="1"/>
-    <col min="38" max="39" width="11.42578125" style="23" customWidth="1"/>
-    <col min="40" max="16384" width="13.85546875" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="24" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="23" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="23" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="25" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="23" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="23" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="23" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="25" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="25" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="23" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="23" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="23" customWidth="1"/>
+    <col min="34" max="35" width="11.44140625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" style="25" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="25" customWidth="1"/>
+    <col min="38" max="39" width="11.44140625" style="23" customWidth="1"/>
+    <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="122" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="122" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
         <v>68</v>
       </c>
@@ -20259,7 +20259,7 @@
       </c>
       <c r="AM1" s="207"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>0.945488879006112</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>0.901950415693481</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>0.67494273744755295</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>0.74200245788716901</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>55</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>0.83697812478771405</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>34</v>
       </c>
@@ -21707,50 +21707,50 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="33" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="32" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="32" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="34" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="32" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="32" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="35" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="35" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="35" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="32" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="32" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="32" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="35" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="35" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="35" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="32" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="32" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="32" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="35" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="35" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="35" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="32" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="32" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="32" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="35" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="35" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="35" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="32" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="32" customWidth="1"/>
-    <col min="51" max="52" width="8.7109375" style="32" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="35" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="35" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="35" customWidth="1"/>
-    <col min="56" max="57" width="11.42578125" style="32" customWidth="1"/>
-    <col min="58" max="16384" width="13.85546875" style="32"/>
+    <col min="1" max="1" width="12.33203125" style="33" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="32" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="32" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="34" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="32" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="32" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="32" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="35" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="35" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="35" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="32" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="32" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="32" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="35" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="35" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="35" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="32" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="32" customWidth="1"/>
+    <col min="33" max="34" width="8.6640625" style="32" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" style="35" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="35" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="35" customWidth="1"/>
+    <col min="38" max="39" width="7.6640625" style="32" customWidth="1"/>
+    <col min="40" max="41" width="11.44140625" style="32" customWidth="1"/>
+    <col min="42" max="43" width="8.6640625" style="32" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="35" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" style="35" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="35" customWidth="1"/>
+    <col min="47" max="48" width="7.6640625" style="32" customWidth="1"/>
+    <col min="49" max="50" width="11.44140625" style="32" customWidth="1"/>
+    <col min="51" max="52" width="8.6640625" style="32" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" style="35" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="35" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" style="35" customWidth="1"/>
+    <col min="56" max="57" width="11.44140625" style="32" customWidth="1"/>
+    <col min="58" max="16384" width="13.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="31" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="31" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
         <v>68</v>
       </c>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="BE1" s="207"/>
     </row>
-    <row r="2" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>37</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>51</v>
       </c>
@@ -22273,7 +22273,7 @@
         <v>0.96763271291965003</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>53</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>0.89343047868632197</v>
       </c>
     </row>
-    <row r="5" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="74" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>0.49149090119960898</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="101" t="s">
         <v>5</v>
       </c>
@@ -22958,7 +22958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>52</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>0.82413402479152897</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="85" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
         <v>55</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>0.83291444025534001</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="109" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="101" t="s">
         <v>41</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="110" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" s="110" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
@@ -23917,41 +23917,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="E5:AB34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" customWidth="1"/>
+    <col min="26" max="26" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="25:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="25:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="25:28" x14ac:dyDescent="0.3">
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>69</v>
       </c>
@@ -23971,50 +23971,50 @@
       <selection activeCell="AB18" sqref="AB18:AH21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="152" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="152" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="153" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="153" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="153" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="153" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="153" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="151" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="151" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="151" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="151" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="145" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="151" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="151" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="145" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="153" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="153" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="153" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="153" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" style="153" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="153" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="153" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="153" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="153" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="153" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" style="153" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="153" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="146" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="146" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="146" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="203" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="145" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" style="151" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="151" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="145" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="146" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" style="203" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="145" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="151" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="151" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.109375" style="145" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="145" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="145" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="144" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" style="144" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" style="144" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="144" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="12.7109375" style="144" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.44140625" style="144" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" style="144" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.33203125" style="144" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.109375" style="144" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.6640625" style="144" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" style="144" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.7109375" style="144" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" style="144" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" style="144" customWidth="1"/>
     <col min="39" max="39" width="13" style="144" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="144"/>
+    <col min="40" max="16384" width="8.88671875" style="144"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="7" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="7" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -24048,7 +24048,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
     </row>
-    <row r="2" spans="1:64" s="173" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" s="173" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="169" t="s">
         <v>0</v>
       </c>
@@ -24151,7 +24151,7 @@
       <c r="AJ2" s="178"/>
       <c r="AM2" s="177"/>
     </row>
-    <row r="3" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="124" t="str">
         <f>RIGHT([7]l_t_b0!A2,3)</f>
         <v>MDC</v>
@@ -24292,7 +24292,7 @@
       <c r="AS3" s="168"/>
       <c r="AT3" s="168"/>
     </row>
-    <row r="4" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="124" t="str">
         <f>RIGHT([7]l_t_b0!A3,3)</f>
         <v>MWH</v>
@@ -24434,7 +24434,7 @@
       <c r="AT4" s="168"/>
       <c r="BB4" s="168"/>
     </row>
-    <row r="5" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="124" t="str">
         <f>RIGHT([7]l_t_b0!A4,3)</f>
         <v>MYN</v>
@@ -24576,7 +24576,7 @@
       <c r="AT5" s="168"/>
       <c r="BK5" s="168"/>
     </row>
-    <row r="6" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="128" t="str">
         <f>RIGHT([7]l_t_b0!A5,3)</f>
         <v>MDQ</v>
@@ -24712,7 +24712,7 @@
       <c r="AJ6" s="135"/>
       <c r="AM6" s="157"/>
     </row>
-    <row r="7" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="str">
         <f>RIGHT([24]PA_l_t_b0!A2,3)</f>
         <v>L*H</v>
@@ -24854,7 +24854,7 @@
       <c r="AT7" s="168"/>
       <c r="BB7" s="168"/>
     </row>
-    <row r="8" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="124" t="str">
         <f>RIGHT([24]PA_l_t_b0!A3,6)</f>
         <v>^[L*]H</v>
@@ -24995,7 +24995,7 @@
       <c r="BK8" s="168"/>
       <c r="BL8" s="168"/>
     </row>
-    <row r="9" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="124" t="str">
         <f>RIGHT([24]PA_l_t_b0!A4,6)</f>
         <v>L*^[H]</v>
@@ -25131,7 +25131,7 @@
       <c r="AJ9" s="135"/>
       <c r="AM9" s="157"/>
     </row>
-    <row r="10" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="124" t="str">
         <f>RIGHT([24]PA_l_t_b0!A5,6)</f>
         <v>^[L*H]</v>
@@ -25272,7 +25272,7 @@
       <c r="AS10" s="168"/>
       <c r="AT10" s="168"/>
     </row>
-    <row r="11" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="132"/>
       <c r="B11" s="133"/>
       <c r="C11" s="161"/>
@@ -25299,7 +25299,7 @@
       <c r="Y11" s="136"/>
       <c r="AD11" s="157"/>
     </row>
-    <row r="12" spans="1:64" s="7" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="7" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -25330,7 +25330,7 @@
       </c>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -25437,7 +25437,7 @@
       <c r="AL13" s="145"/>
       <c r="AM13" s="145"/>
     </row>
-    <row r="14" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="124" t="str">
         <f t="shared" ref="A14:A21" si="3">A3</f>
         <v>MDC</v>
@@ -25575,7 +25575,7 @@
       <c r="AL14" s="157"/>
       <c r="AM14" s="157"/>
     </row>
-    <row r="15" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="124" t="str">
         <f t="shared" si="3"/>
         <v>MWH</v>
@@ -25710,7 +25710,7 @@
       </c>
       <c r="AJ15" s="164"/>
     </row>
-    <row r="16" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="124" t="str">
         <f t="shared" si="3"/>
         <v>MYN</v>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="AJ16" s="164"/>
     </row>
-    <row r="17" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="124" t="str">
         <f t="shared" si="3"/>
         <v>MDQ</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="AJ17" s="164"/>
     </row>
-    <row r="18" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="124" t="str">
         <f t="shared" si="3"/>
         <v>L*H</v>
@@ -26116,7 +26116,7 @@
       </c>
       <c r="AJ18" s="164"/>
     </row>
-    <row r="19" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="124" t="str">
         <f t="shared" si="3"/>
         <v>^[L*]H</v>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="AJ19" s="164"/>
     </row>
-    <row r="20" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="124" t="str">
         <f t="shared" si="3"/>
         <v>L*^[H]</v>
@@ -26386,7 +26386,7 @@
       </c>
       <c r="AJ20" s="164"/>
     </row>
-    <row r="21" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" s="156" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="128" t="str">
         <f t="shared" si="3"/>
         <v>^[L*H]</v>
@@ -26521,7 +26521,7 @@
       </c>
       <c r="AJ21" s="164"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="144"/>
       <c r="B22" s="144"/>
       <c r="C22" s="144"/>
@@ -26558,7 +26558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="144"/>
       <c r="B23" s="144"/>
       <c r="C23" s="144"/>
@@ -26589,7 +26589,7 @@
       <c r="AB23" s="144"/>
       <c r="AC23" s="144"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="144"/>
       <c r="B24" s="144"/>
       <c r="C24" s="144"/>
@@ -26618,7 +26618,7 @@
       <c r="AB24" s="144"/>
       <c r="AC24" s="144"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="144"/>
       <c r="B25" s="144"/>
       <c r="C25" s="144"/>
@@ -26649,7 +26649,7 @@
       <c r="AB25" s="144"/>
       <c r="AC25" s="144"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="144"/>
       <c r="B26" s="144"/>
       <c r="C26" s="144"/>
@@ -26680,7 +26680,7 @@
       <c r="AB26" s="144"/>
       <c r="AC26" s="144"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="144"/>
       <c r="B27" s="144"/>
       <c r="C27" s="144"/>
@@ -26711,7 +26711,7 @@
       <c r="AB27" s="144"/>
       <c r="AC27" s="144"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J28" s="153"/>
       <c r="N28" s="146"/>
       <c r="O28" s="146"/>
@@ -26722,7 +26722,7 @@
       <c r="AB28" s="144"/>
       <c r="AC28" s="144"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J29" s="153"/>
       <c r="N29" s="146"/>
       <c r="O29" s="146"/>
@@ -26733,11 +26733,11 @@
       <c r="AB29" s="144"/>
       <c r="AC29" s="144"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="D30" s="144"/>
       <c r="E30" s="144"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J31" s="153"/>
       <c r="N31" s="146"/>
       <c r="O31" s="146"/>
@@ -26748,7 +26748,7 @@
       <c r="AB31" s="144"/>
       <c r="AC31" s="144"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J32" s="153"/>
       <c r="N32" s="146"/>
       <c r="O32" s="146"/>
@@ -26759,7 +26759,7 @@
       <c r="AB32" s="144"/>
       <c r="AC32" s="144"/>
     </row>
-    <row r="33" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J33" s="153"/>
       <c r="N33" s="146"/>
       <c r="O33" s="146"/>
@@ -26770,7 +26770,7 @@
       <c r="AB33" s="144"/>
       <c r="AC33" s="144"/>
     </row>
-    <row r="34" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J34" s="153"/>
       <c r="N34" s="146"/>
       <c r="O34" s="146"/>
@@ -26781,7 +26781,7 @@
       <c r="AB34" s="144"/>
       <c r="AC34" s="144"/>
     </row>
-    <row r="35" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J35" s="153"/>
       <c r="N35" s="146"/>
       <c r="O35" s="146"/>
@@ -26792,7 +26792,7 @@
       <c r="AB35" s="144"/>
       <c r="AC35" s="144"/>
     </row>
-    <row r="37" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J37" s="153"/>
       <c r="N37" s="146"/>
       <c r="O37" s="146"/>
@@ -26803,7 +26803,7 @@
       <c r="AB37" s="144"/>
       <c r="AC37" s="144"/>
     </row>
-    <row r="38" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J38" s="153"/>
       <c r="N38" s="146"/>
       <c r="O38" s="146"/>
@@ -26814,7 +26814,7 @@
       <c r="AB38" s="144"/>
       <c r="AC38" s="144"/>
     </row>
-    <row r="39" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J39" s="153"/>
       <c r="N39" s="146"/>
       <c r="O39" s="146"/>
@@ -26825,7 +26825,7 @@
       <c r="AB39" s="144"/>
       <c r="AC39" s="144"/>
     </row>
-    <row r="40" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J40" s="153"/>
       <c r="N40" s="146"/>
       <c r="O40" s="146"/>
@@ -26836,7 +26836,7 @@
       <c r="AB40" s="144"/>
       <c r="AC40" s="144"/>
     </row>
-    <row r="41" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J41" s="153"/>
       <c r="N41" s="146"/>
       <c r="O41" s="146"/>
@@ -26847,36 +26847,36 @@
       <c r="AB41" s="144"/>
       <c r="AC41" s="144"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51" s="146"/>
       <c r="E51" s="146"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="154"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" s="154"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="154"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" s="154"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="154"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" s="154"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="154"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="146"/>
       <c r="E59" s="146"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="146"/>
       <c r="E60" s="146"/>
     </row>

--- a/Ch_7_Sentence_Modes/Mode OR Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Mode OR Nuc PA Phonetic Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC48E5C-8FE4-43FB-BC40-387A17C74C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2C139B-A204-4FFB-A02F-0030CD5A2175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
